--- a/CoreRulebook/Data/Spells/recuperation.xlsx
+++ b/CoreRulebook/Data/Spells/recuperation.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="176">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Discipline</t>
+  </si>
+  <si>
     <t xml:space="preserve">Incantation</t>
   </si>
   <si>
@@ -40,18 +43,6 @@
     <t xml:space="preserve">Level</t>
   </si>
   <si>
-    <t xml:space="preserve">Fortitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty</t>
-  </si>
-  <si>
     <t xml:space="preserve">Resist</t>
   </si>
   <si>
@@ -67,6 +58,9 @@
     <t xml:space="preserve">Aid Charm</t>
   </si>
   <si>
+    <t xml:space="preserve">Healing</t>
+  </si>
+  <si>
     <t xml:space="preserve">subsidium</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t xml:space="preserve">1 hour</t>
   </si>
   <si>
-    <t xml:space="preserve">EMP </t>
-  </si>
-  <si>
     <t xml:space="preserve">Raise the HP ceiling of a target by 3. If target has HP$&gt;0$, also increase HP by this amount.</t>
   </si>
   <si>
@@ -175,6 +166,9 @@
     <t xml:space="preserve">Caterwauling Ward</t>
   </si>
   <si>
+    <t xml:space="preserve">Warding</t>
+  </si>
+  <si>
     <t xml:space="preserve">caterwaul</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT</t>
   </si>
   <si>
     <t xml:space="preserve">FIN(Stealth)</t>
@@ -206,9 +197,6 @@
     <t xml:space="preserve">Etheral Shield</t>
   </si>
   <si>
-    <t xml:space="preserve">POW</t>
-  </si>
-  <si>
     <t xml:space="preserve">Erects an ethereal shield in front of you that absorbs incoming magical attacks.
 Shielding charm provides a magical AC by 10+PP against all incoming spells, but does not protect against physical damage, or the aftereffects of magic (i.e. a nearby explosion). This AC is eroded by all damage-causing effects.</t>
   </si>
@@ -252,12 +240,6 @@
     <t xml:space="preserve">Yellow-white rays</t>
   </si>
   <si>
-    <t xml:space="preserve">EMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Heal for 2 points per turn. 
 If the target has a serious wound, i.e. a broken bone, cannot heal beyond 50\% health. Only works on living creatures. </t>
   </si>
@@ -268,9 +250,6 @@
     <t xml:space="preserve">muffliato</t>
   </si>
   <si>
-    <t xml:space="preserve">SPR</t>
-  </si>
-  <si>
     <t xml:space="preserve">A buzzing sound fills the ears of anyone trying to listen in on your conversations whilst you are in the warded area. Lasts for one hour, and has a radius of 2m.</t>
   </si>
   <si>
@@ -283,9 +262,6 @@
     <t xml:space="preserve">Brick-red rays</t>
   </si>
   <si>
-    <t xml:space="preserve">Arcane</t>
-  </si>
-  <si>
     <t xml:space="preserve">Restore the strength of a target shield or magical ward by (2+PP) points per turn that this spell is maintained. Cannot restore the strength to more than the original level.</t>
   </si>
   <si>
@@ -304,9 +280,6 @@
     <t xml:space="preserve">5 minutes</t>
   </si>
   <si>
-    <t xml:space="preserve">Endurance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Increase the target{\apos} AC by 10+PP. </t>
   </si>
   <si>
@@ -377,9 +350,6 @@
     <t xml:space="preserve">dispungo</t>
   </si>
   <si>
-    <t xml:space="preserve">Understand Other</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enquire as to the health status of the target, find out their remaining HP, as well as any status effects they currently posses. </t>
   </si>
   <si>
@@ -476,13 +446,10 @@
     <t xml:space="preserve">White flash</t>
   </si>
   <si>
-    <t xml:space="preserve">Willpower</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATH (Strength)</t>
   </si>
   <si>
-    <t xml:space="preserve">Force objects and beings to release the target from their grip if they fail a Resist check. </t>
+    <t xml:space="preserve">Force objects and beings to release the target , and remove all impediments to moving. Resist nullifies this effect.</t>
   </si>
   <si>
     <t xml:space="preserve">Runic Shield</t>
@@ -624,9 +591,6 @@
     <t xml:space="preserve">denarlium</t>
   </si>
   <si>
-    <t xml:space="preserve">Precision</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATH (Perception)</t>
   </si>
   <si>
@@ -712,9 +676,6 @@
   </si>
   <si>
     <t xml:space="preserve">5 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth</t>
   </si>
   <si>
     <t xml:space="preserve">A ward that creates an invisible trap of 2m in radius. When a being crosses over the threshold, the ward slams shut, doing 2d8 worth of piercing damage and applying the Trapped status effect. </t>
@@ -751,9 +712,6 @@
     <t xml:space="preserve">3 + PP minutes</t>
   </si>
   <si>
-    <t xml:space="preserve">FIN </t>
-  </si>
-  <si>
     <t xml:space="preserve">This spell creates a permanent warded area inside which all magic performs exactly the opposite to its intended purpose. Healing spells cause harm, hexes heal and shields amplify the spells passing through them. </t>
   </si>
   <si>
@@ -857,9 +815,6 @@
     <t xml:space="preserve">Invisible ripple</t>
   </si>
   <si>
-    <t xml:space="preserve">Strength</t>
-  </si>
-  <si>
     <t xml:space="preserve">Erects a 1m radius shield in front of the caster, which halts any physical object that touches it. Objects in flight drop to the ground, as if the {\it Halt} spell had been cast on them.</t>
   </si>
   <si>
@@ -870,6 +825,45 @@
   </si>
   <si>
     <t xml:space="preserve">Target is protected from the ravages of the environment, and hence can exist in temperatures in the range -40  to 50 celsius, and is unaffected by heavy rain and other weather phenomena. Does not protect against heat damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patronus Charm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expecto patronus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summon your greatest, happiest memories into physical form: your patronus. The patronus will prevent any Un-Life creatures from approaching you for the duration of the spell.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When cast by a character higher than 15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> level, the patronus takes corporeal form, and may attack Unlife directly, doing 5d8 Holy damage.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -879,7 +873,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -918,6 +912,12 @@
       <sz val="8"/>
       <name val="aakar"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -963,7 +963,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -984,6 +984,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -997,22 +1005,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M36" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:M36"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J36" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:J36"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Incantation"/>
-    <tableColumn id="3" name="Type"/>
-    <tableColumn id="4" name="TravelType"/>
-    <tableColumn id="5" name="Duration"/>
-    <tableColumn id="6" name="Level"/>
-    <tableColumn id="7" name="Fortitude"/>
-    <tableColumn id="8" name="Attribute"/>
-    <tableColumn id="9" name="Proficiency"/>
-    <tableColumn id="10" name="Difficulty"/>
-    <tableColumn id="11" name="Resist"/>
-    <tableColumn id="12" name="ResistDV"/>
-    <tableColumn id="13" name="Effect"/>
+    <tableColumn id="2" name="Discipline"/>
+    <tableColumn id="3" name="Incantation"/>
+    <tableColumn id="4" name="Type"/>
+    <tableColumn id="5" name="TravelType"/>
+    <tableColumn id="6" name="Duration"/>
+    <tableColumn id="7" name="Level"/>
+    <tableColumn id="8" name="Resist"/>
+    <tableColumn id="9" name="ResistDV"/>
+    <tableColumn id="10" name="Effect"/>
   </tableColumns>
 </table>
 </file>
@@ -1022,26 +1027,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="36.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="72.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="36.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="72.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="29.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="12" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,1364 +1078,1090 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="I3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="G5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4" t="s">
-        <v>41</v>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4" t="s">
-        <v>45</v>
+      <c r="J6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="G7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>51</v>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4" t="s">
-        <v>57</v>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="G9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>62</v>
+      <c r="J9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="G10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4" t="s">
-        <v>66</v>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="G11" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="3" t="n">
-        <v>5</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="G12" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>76</v>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>81</v>
+      <c r="J13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4" t="s">
-        <v>85</v>
+      <c r="J14" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="n">
+      <c r="G16" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="4" t="s">
-        <v>95</v>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="G17" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4" t="s">
-        <v>98</v>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="4" t="s">
-        <v>102</v>
+      <c r="J18" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="3" t="n">
-        <v>8</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="I19" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>108</v>
+      <c r="J19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="4" t="s">
-        <v>113</v>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G21" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="4" t="s">
-        <v>116</v>
+      <c r="J21" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="G22" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>120</v>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="3" t="n">
+        <v>111</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G23" s="3" t="n">
-        <v>12</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="3" t="n">
+        <v>112</v>
+      </c>
+      <c r="I23" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L23" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>125</v>
+      <c r="J23" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="G24" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="4" t="s">
-        <v>128</v>
+      <c r="J24" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="3" t="n">
+        <v>118</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G25" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="29.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>136</v>
+      <c r="J26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G27" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="4" t="s">
-        <v>140</v>
+      <c r="J27" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G28" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J28" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>108</v>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G29" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="4" t="s">
-        <v>149</v>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="n">
+        <v>138</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="G30" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G30" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="4" t="s">
-        <v>152</v>
+      <c r="J30" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="3" t="n">
+        <v>141</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G31" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="4" t="s">
-        <v>157</v>
+      <c r="J31" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="3" t="n">
+        <v>145</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G32" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="G33" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G33" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="4" t="s">
-        <v>165</v>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="n">
+        <v>153</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="G34" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G34" s="3" t="n">
-        <v>20</v>
-      </c>
       <c r="H34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3" t="n">
+        <v>155</v>
+      </c>
+      <c r="I34" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L34" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>170</v>
+      <c r="J34" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="3" t="n">
+        <v>158</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G35" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="4" t="s">
-        <v>173</v>
+      <c r="J35" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="3" t="n">
+        <v>162</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="G36" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G36" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="4" t="s">
-        <v>178</v>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="G37" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G37" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J37" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>183</v>
+      <c r="J37" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G38" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>186</v>
+      <c r="J38" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Spells/recuperation.xlsx
+++ b/CoreRulebook/Data/Spells/recuperation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="181">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -864,6 +864,21 @@
       </rPr>
       <t xml:space="preserve"> level, the patronus takes corporeal form, and may attack Unlife directly, doing 5d8 Holy damage.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Feign Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fautis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritual (30 minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1+$2\times$PP) hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast upon a willing living being, they are placed into a state of suspended animation which perfectly replicates the outward appearance of death. Divination checks with a casting check greater than this spell may peirce the deception. The target is blinded, deafened and physically incapacitated for the duration of the spell. The caster may revive them as a minor action. </t>
   </si>
 </sst>
 </file>
@@ -1027,20 +1042,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="J41" activeCellId="0" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="36.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.85"/>
@@ -2162,6 +2178,29 @@
       </c>
       <c r="K39" s="2" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Spells/recuperation.xlsx
+++ b/CoreRulebook/Data/Spells/recuperation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE8948E-1B18-441A-AFE5-738BA30005FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867A3C4D-4666-4462-AFF0-EC53C626FA87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="4560" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>HigherLevel</t>
   </si>
   <si>
-    <t>Aid Charm</t>
-  </si>
-  <si>
     <t>Healing</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>Searing-white bolt</t>
   </si>
   <si>
-    <t>A bolt of magic explodes on contact with a solid {\it or} astral object, releasing a searing white light that does 2d6 Holy Damage.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -670,14 +664,7 @@
     <t>Give the target a temporary +150\% boost to their maximum HP, and adds current HP to match.</t>
   </si>
   <si>
-    <t>Holy Ward</t>
-  </si>
-  <si>
     <t>pervetutem luminis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a region where the Unlife cannot pass. Unlife attempting to cross the barrier are ignited for 2d12 worth of holy damage per turn that they remain inside the area, and a Major Burn. 
-Shield fails when (30 + 2 $\times$PP) damage has been inflicted. Radius of ward is 10m. </t>
   </si>
   <si>
     <t>Inversion Zone</t>
@@ -810,12 +797,44 @@
     <t>Summon your greatest, happiest memories into physical form: your patronus. The patronus will prevent any Un-Life creatures from approaching you for the duration of the spell.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <charset val="1"/>
-      </rPr>
+    <t>Feign Death</t>
+  </si>
+  <si>
+    <t>fautis</t>
+  </si>
+  <si>
+    <t>Ritual (30 minutes)</t>
+  </si>
+  <si>
+    <t>(1+$2\times$PP) hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast upon a willing living being, they are placed into a state of suspended animation which perfectly replicates the outward appearance of death. Divination checks with a casting check greater than this spell may peirce the deception. The target is blinded, deafened and physically incapacitated for the duration of the spell. The caster may revive them as a minor action. </t>
+  </si>
+  <si>
+    <t>Naturis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may channel your life-giving energy in order to influence a plant\apos{} growth, causing it to grow at an accelerated rate, or grow in a specified manner. You may cause the plant to flower or fruit early, but you may not alter its fundamental nature. The maximum size plant you can manipulate is 1kg, doubled for every character level you possess. </t>
+  </si>
+  <si>
+    <t>Influence Plant</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>A bolt of magic explodes on contact with a solid {\it or} astral object, releasing a searing white light that does 2d6 Celestial Damage.</t>
+  </si>
+  <si>
+    <t>Celestial Barrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a region where the Unlife cannot pass. Unlife attempting to cross the barrier are ignited for 2d12 worth of celestial damage per turn that they remain inside the area, and a Major Burn. 
+Shield fails when (30 + 2 $\times$PP) damage has been inflicted. Radius of ward is 10m. </t>
+  </si>
+  <si>
+    <r>
       <t>When cast by a character higher than 15</t>
     </r>
     <r>
@@ -833,32 +852,8 @@
         <rFont val="aakar"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> level, the patronus takes corporeal form, and may attack Unlife directly, doing 5d8 Holy damage.</t>
-    </r>
-  </si>
-  <si>
-    <t>Feign Death</t>
-  </si>
-  <si>
-    <t>fautis</t>
-  </si>
-  <si>
-    <t>Ritual (30 minutes)</t>
-  </si>
-  <si>
-    <t>(1+$2\times$PP) hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When cast upon a willing living being, they are placed into a state of suspended animation which perfectly replicates the outward appearance of death. Divination checks with a casting check greater than this spell may peirce the deception. The target is blinded, deafened and physically incapacitated for the duration of the spell. The caster may revive them as a minor action. </t>
-  </si>
-  <si>
-    <t>Naturis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may channel your life-giving energy in order to influence a plant\apos{} growth, causing it to grow at an accelerated rate, or grow in a specified manner. You may cause the plant to flower or fruit early, but you may not alter its fundamental nature. The maximum size plant you can manipulate is 1kg, doubled for every character level you possess. </t>
-  </si>
-  <si>
-    <t>Influence Plant</t>
+      <t xml:space="preserve"> level, the patronus takes corporeal form, and may attack Unlife directly, doing 5d8 Celestial damage.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1275,10 +1270,10 @@
   <dimension ref="A1:AMF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1332,22 +1327,22 @@
     </row>
     <row r="2" spans="1:11" ht="33.75">
       <c r="A2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -1355,57 +1350,57 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="33.75">
       <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="3">
         <v>15</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="45">
       <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1416,27 +1411,27 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="33.75">
       <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1447,25 +1442,25 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="22.5">
       <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -1473,24 +1468,24 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="33.75">
       <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -1501,55 +1496,55 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="33.75">
       <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -1560,28 +1555,28 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="4" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="22.5">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -1589,25 +1584,25 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="22.5">
       <c r="A11" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
@@ -1615,21 +1610,21 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="22.5">
       <c r="A12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
@@ -1641,27 +1636,27 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="33.75">
       <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -1670,33 +1665,33 @@
         <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="33.75">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1707,25 +1702,25 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="33.75">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -1733,24 +1728,24 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="22.5">
       <c r="A16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1759,33 +1754,33 @@
         <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="22.5">
       <c r="A17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -1793,24 +1788,24 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1821,25 +1816,25 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="33.75">
       <c r="A19" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G19" s="3">
         <v>3</v>
@@ -1847,60 +1842,60 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="33.75">
       <c r="A20" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G20" s="3">
         <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I20" s="3">
         <v>10</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="33.75">
       <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="G21" s="3">
         <v>3</v>
@@ -1908,25 +1903,25 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="22.5">
       <c r="A22" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G22" s="3">
         <v>3</v>
@@ -1934,27 +1929,27 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="22.5">
       <c r="A23" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1965,54 +1960,54 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45">
       <c r="A24" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I24" s="3">
         <v>10</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="33.75">
       <c r="A25" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -2023,25 +2018,25 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="33.75">
       <c r="A26" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G26" s="3">
         <v>3</v>
@@ -2049,28 +2044,28 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="22.5">
       <c r="A27" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G27" s="3">
         <v>3</v>
@@ -2078,25 +2073,25 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="33.75">
       <c r="A28" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G28" s="3">
         <v>4</v>
@@ -2104,30 +2099,30 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="G29" s="3">
         <v>4</v>
@@ -2135,21 +2130,21 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="33.75">
       <c r="A30" s="3" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3">
@@ -2161,25 +2156,25 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="33.75">
       <c r="A31" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G31" s="3">
         <v>4</v>
@@ -2187,24 +2182,24 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="33.75">
       <c r="A32" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2215,28 +2210,28 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G33" s="3">
         <v>4</v>
@@ -2244,21 +2239,21 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="67.5">
       <c r="A34" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3">
@@ -2268,31 +2263,31 @@
         <v>5</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I34" s="3">
         <v>18</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="22.5">
       <c r="A35" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G35" s="3">
         <v>5</v>
@@ -2300,24 +2295,24 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -2328,24 +2323,24 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="22.5">
       <c r="A37" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2354,44 +2349,44 @@
         <v>3</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="33.75">
       <c r="A38" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G38" s="1">
         <v>2</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="45">
       <c r="A39" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
@@ -2403,47 +2398,47 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="45">
       <c r="A40" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G40" s="1">
         <v>3</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="45">
       <c r="A41" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2452,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Spells/recuperation.xlsx
+++ b/CoreRulebook/Data/Spells/recuperation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867A3C4D-4666-4462-AFF0-EC53C626FA87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68DD03E-9340-4A4F-A65F-2136B1D8D224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="4560" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="191">
   <si>
     <t>Name</t>
   </si>
@@ -854,6 +854,27 @@
       </rPr>
       <t xml:space="preserve"> level, the patronus takes corporeal form, and may attack Unlife directly, doing 5d8 Celestial damage.</t>
     </r>
+  </si>
+  <si>
+    <t>Force Cage</t>
+  </si>
+  <si>
+    <t>prestura</t>
+  </si>
+  <si>
+    <t>Shimmering blue veil</t>
+  </si>
+  <si>
+    <t>POW</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create an inverted-shield in a cube (1+PP)m in length. This region acts as a cage: an entity inside cannot cross the boundary without succeeding in a Resist check. Beings outside can freely enter, but once they have fully crossed over the threshold, they cannot re-enter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by an Expert-level caster, if the casting check succeeds but is less than 10, the DV value for the Resist is equal to 10, rather than the true casting check. </t>
   </si>
 </sst>
 </file>
@@ -1267,13 +1288,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMF41"/>
+  <dimension ref="A1:AMF42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2450,6 +2471,41 @@
         <v>177</v>
       </c>
     </row>
+    <row r="42" spans="1:11" ht="56.25">
+      <c r="A42" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
